--- a/O2S InsuranceExpertise/Documents/Cau truc the file XML_QD324.xlsx
+++ b/O2S InsuranceExpertise/Documents/Cau truc the file XML_QD324.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="XML1" sheetId="1" r:id="rId1"/>
@@ -1192,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -2148,7 +2148,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,11 +2639,11 @@
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="11" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="115.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="100.7109375" style="8" customWidth="1"/>
     <col min="8" max="8" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3344,7 +3344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
